--- a/Manuscripts/Materials Oder List.xlsx
+++ b/Manuscripts/Materials Oder List.xlsx
@@ -5,15 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User-3754\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User-3754\Desktop\Resaerch Manuscripts 2-25-2022\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F433FD2F-6E6B-43FD-A95F-F8488BF4416B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{825DD782-EA06-44AD-8B19-720AFF54662A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Order List" sheetId="1" r:id="rId1"/>
+    <sheet name="List 3-18-22" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -31,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="91">
   <si>
     <t>Name</t>
   </si>
@@ -133,6 +135,177 @@
   </si>
   <si>
     <t>Received:</t>
+  </si>
+  <si>
+    <t>Fungi Perfecti</t>
+  </si>
+  <si>
+    <t>Gypsum</t>
+  </si>
+  <si>
+    <t>Rye</t>
+  </si>
+  <si>
+    <t>Control Substrate + isolates</t>
+  </si>
+  <si>
+    <t>Control Substrate - isolates</t>
+  </si>
+  <si>
+    <t>Cascadia Mushrooms:</t>
+  </si>
+  <si>
+    <t>Shiitake</t>
+  </si>
+  <si>
+    <t>No auricularia</t>
+  </si>
+  <si>
+    <t>Outgrow:</t>
+  </si>
+  <si>
+    <t>bags</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Manure substrate </t>
+  </si>
+  <si>
+    <t>casing soil</t>
+  </si>
+  <si>
+    <t>50 lbs.</t>
+  </si>
+  <si>
+    <t>SKU OG1111</t>
+  </si>
+  <si>
+    <t>Auricularia</t>
+  </si>
+  <si>
+    <t>shiitake</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stopharia </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wood substrate </t>
+  </si>
+  <si>
+    <t>Shiitake Grain Master Jar</t>
+  </si>
+  <si>
+    <t>Sourcess:</t>
+  </si>
+  <si>
+    <t>Outgrow</t>
+  </si>
+  <si>
+    <t>Mushroom Mtn</t>
+  </si>
+  <si>
+    <t>Cascadia Mushrooms</t>
+  </si>
+  <si>
+    <t>Bellingham, WA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shiitake, stropharia, </t>
+  </si>
+  <si>
+    <t>has</t>
+  </si>
+  <si>
+    <t>not in stock</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sno-valley mushrooms </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Does not seem to have much supplies. </t>
+  </si>
+  <si>
+    <t>Illinois</t>
+  </si>
+  <si>
+    <t>Use this, find values from other table</t>
+  </si>
+  <si>
+    <t>need 350 more</t>
+  </si>
+  <si>
+    <t>3.75 / lb</t>
+  </si>
+  <si>
+    <t>Wine cap</t>
+  </si>
+  <si>
+    <t>1 lb bag of rye berries</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SKU 32-N8KD-CKYQ</t>
+  </si>
+  <si>
+    <t>Quantity Needed:</t>
+  </si>
+  <si>
+    <t>Product #</t>
+  </si>
+  <si>
+    <t>Grain Spawn</t>
+  </si>
+  <si>
+    <t>21.3 lbs</t>
+  </si>
+  <si>
+    <t>Amount of materials needed for 3 kg wet eight per unit.</t>
+  </si>
+  <si>
+    <t>Dry Weight (kg)</t>
+  </si>
+  <si>
+    <t>Dry Weight (lbs0</t>
+  </si>
+  <si>
+    <t>sawdust</t>
+  </si>
+  <si>
+    <t>straw</t>
+  </si>
+  <si>
+    <t>SBG</t>
+  </si>
+  <si>
+    <t>coffee grounds</t>
+  </si>
+  <si>
+    <t>gypsum</t>
+  </si>
+  <si>
+    <t>rye grain</t>
+  </si>
+  <si>
+    <t>44 lbs</t>
+  </si>
+  <si>
+    <t>Mycolabs</t>
+  </si>
+  <si>
+    <t>Suppliers</t>
+  </si>
+  <si>
+    <t>5 lb grow kits</t>
+  </si>
+  <si>
+    <t>40 lbs rye for $55</t>
+  </si>
+  <si>
+    <t>Grain</t>
+  </si>
+  <si>
+    <t>Bulk Organic</t>
+  </si>
+  <si>
+    <t>50 lbs</t>
   </si>
 </sst>
 </file>
@@ -143,7 +316,7 @@
     <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -233,16 +406,47 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -265,12 +469,55 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="2" tint="-9.9978637043366805E-2"/>
+      </left>
+      <right style="thin">
+        <color theme="2" tint="-9.9978637043366805E-2"/>
+      </right>
+      <top style="thin">
+        <color theme="2" tint="-9.9978637043366805E-2"/>
+      </top>
+      <bottom style="thin">
+        <color theme="2" tint="-9.9978637043366805E-2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="2" tint="-9.9978637043366805E-2"/>
+      </left>
+      <right style="thin">
+        <color theme="2"/>
+      </right>
+      <top style="thin">
+        <color theme="2" tint="-9.9978637043366805E-2"/>
+      </top>
+      <bottom style="thin">
+        <color theme="2" tint="-9.9978637043366805E-2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="2" tint="-9.9978637043366805E-2"/>
+      </right>
+      <top style="thin">
+        <color theme="2" tint="-9.9978637043366805E-2"/>
+      </top>
+      <bottom style="thin">
+        <color theme="2" tint="-9.9978637043366805E-2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -292,6 +539,21 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -308,6 +570,86 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>518160</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>182880</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="TextBox 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A886627-7469-4FAD-AD61-829F02022AED}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5715000" y="3497580"/>
+          <a:ext cx="2857500" cy="1638300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Grain</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> - 10 lbs per species. * 9 species = 90 lbs</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -609,14 +951,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="24.44140625" customWidth="1"/>
     <col min="2" max="2" width="17.44140625" customWidth="1"/>
+    <col min="3" max="3" width="9.5546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.33203125" customWidth="1"/>
     <col min="5" max="5" width="12" customWidth="1"/>
     <col min="6" max="6" width="44.33203125" customWidth="1"/>
@@ -803,6 +1146,9 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="2"/>
+      <c r="C14" s="18">
+        <v>44636</v>
+      </c>
       <c r="D14" s="15" t="s">
         <v>14</v>
       </c>
@@ -842,6 +1188,9 @@
       <c r="B18" s="18">
         <v>44628</v>
       </c>
+      <c r="C18" s="18">
+        <v>44638</v>
+      </c>
       <c r="D18" s="1" t="s">
         <v>24</v>
       </c>
@@ -881,6 +1230,9 @@
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B20" s="18">
         <v>44628</v>
+      </c>
+      <c r="C20" s="18">
+        <v>44636</v>
       </c>
       <c r="D20" s="14" t="s">
         <v>21</v>
@@ -926,4 +1278,463 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId4"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2B5AA0D-C010-400E-B2B8-741C18196F98}">
+  <dimension ref="A1:R27"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22:F23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="7" max="7" width="22.44140625" customWidth="1"/>
+    <col min="8" max="8" width="18.5546875" customWidth="1"/>
+    <col min="9" max="9" width="16.77734375" customWidth="1"/>
+    <col min="10" max="10" width="11.21875" customWidth="1"/>
+    <col min="11" max="11" width="16.6640625" customWidth="1"/>
+    <col min="13" max="13" width="18.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="K1" s="22"/>
+      <c r="L1" s="23" t="s">
+        <v>74</v>
+      </c>
+      <c r="M1" s="24"/>
+      <c r="N1" s="25"/>
+      <c r="O1" s="22"/>
+      <c r="P1" s="22"/>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="E2" s="10"/>
+      <c r="K2" s="22"/>
+      <c r="L2" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="M2" s="27" t="s">
+        <v>76</v>
+      </c>
+      <c r="N2" s="25"/>
+      <c r="O2" s="22"/>
+      <c r="P2" s="22"/>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="E3" s="10"/>
+      <c r="K3" s="22" t="s">
+        <v>77</v>
+      </c>
+      <c r="L3" s="22">
+        <v>129.60000000000002</v>
+      </c>
+      <c r="M3" s="24">
+        <v>285.12000000000006</v>
+      </c>
+      <c r="N3" s="25"/>
+      <c r="O3" s="22"/>
+      <c r="P3" s="22"/>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="E4" s="10"/>
+      <c r="K4" s="22" t="s">
+        <v>78</v>
+      </c>
+      <c r="L4" s="22">
+        <v>129.60000000000002</v>
+      </c>
+      <c r="M4" s="24">
+        <v>285.12000000000006</v>
+      </c>
+      <c r="N4" s="25"/>
+      <c r="O4" s="22"/>
+      <c r="P4" s="22"/>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A5" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="B5" t="s">
+        <v>52</v>
+      </c>
+      <c r="E5" s="10">
+        <v>69</v>
+      </c>
+      <c r="K5" s="22" t="s">
+        <v>79</v>
+      </c>
+      <c r="L5" s="22">
+        <v>33.21</v>
+      </c>
+      <c r="M5" s="24">
+        <v>73.062000000000012</v>
+      </c>
+      <c r="N5" s="25"/>
+      <c r="O5" s="22"/>
+      <c r="P5" s="22"/>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="G6" s="10"/>
+      <c r="K6" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="L6" s="22">
+        <v>21.870000000000005</v>
+      </c>
+      <c r="M6" s="24">
+        <v>48.114000000000011</v>
+      </c>
+      <c r="N6" s="25"/>
+      <c r="O6" s="22"/>
+      <c r="P6" s="22"/>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="E7" s="10"/>
+      <c r="G7" s="10"/>
+      <c r="K7" s="22" t="s">
+        <v>81</v>
+      </c>
+      <c r="L7" s="22">
+        <v>9.7200000000000006</v>
+      </c>
+      <c r="M7" s="24">
+        <v>21.384000000000004</v>
+      </c>
+      <c r="N7" s="25"/>
+      <c r="O7" s="26">
+        <v>80.190000000000012</v>
+      </c>
+      <c r="P7" s="22"/>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A8" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="E8" s="10"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="K8" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="L8" s="22">
+        <v>20.250000000000004</v>
+      </c>
+      <c r="M8" s="24">
+        <v>44.550000000000011</v>
+      </c>
+      <c r="N8" s="25"/>
+      <c r="O8" s="22"/>
+      <c r="P8" s="22"/>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="B9" t="s">
+        <v>43</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9">
+        <v>450</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F9" t="s">
+        <v>65</v>
+      </c>
+      <c r="G9" s="10"/>
+      <c r="K9" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="L9" s="22"/>
+      <c r="M9" s="24"/>
+      <c r="N9" s="25"/>
+      <c r="O9" s="22"/>
+      <c r="P9" s="22"/>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="B10" t="s">
+        <v>44</v>
+      </c>
+      <c r="E10" s="10"/>
+      <c r="G10" s="10"/>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="B11" t="s">
+        <v>51</v>
+      </c>
+      <c r="G11" s="10"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="G12" s="10"/>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="B13" t="s">
+        <v>45</v>
+      </c>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="10"/>
+      <c r="K13" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B14" t="s">
+        <v>72</v>
+      </c>
+      <c r="C14" s="21" t="s">
+        <v>68</v>
+      </c>
+      <c r="D14" t="s">
+        <v>83</v>
+      </c>
+      <c r="E14" s="10"/>
+      <c r="F14" s="26">
+        <v>80.190000000000012</v>
+      </c>
+      <c r="G14" s="10"/>
+      <c r="H14" t="s">
+        <v>69</v>
+      </c>
+      <c r="K14" s="28" t="s">
+        <v>34</v>
+      </c>
+      <c r="L14" s="2"/>
+      <c r="M14" s="30" t="s">
+        <v>84</v>
+      </c>
+      <c r="N14" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="O14" s="2"/>
+      <c r="P14" s="29" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q14" s="2"/>
+      <c r="R14" s="2"/>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="B15" t="s">
+        <v>35</v>
+      </c>
+      <c r="D15" t="s">
+        <v>73</v>
+      </c>
+      <c r="E15" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="F15" s="10">
+        <f xml:space="preserve"> 9 * 3.75</f>
+        <v>33.75</v>
+      </c>
+      <c r="G15" s="10"/>
+      <c r="H15" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="N15" t="s">
+        <v>67</v>
+      </c>
+      <c r="P15" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="E16" s="10"/>
+      <c r="F16" s="10"/>
+      <c r="G16" s="10"/>
+      <c r="N16" t="s">
+        <v>40</v>
+      </c>
+      <c r="P16" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="B17" t="s">
+        <v>48</v>
+      </c>
+      <c r="E17" s="10"/>
+      <c r="F17" s="10"/>
+      <c r="G17" s="10"/>
+      <c r="M17" t="s">
+        <v>86</v>
+      </c>
+      <c r="N17" t="s">
+        <v>41</v>
+      </c>
+      <c r="P17" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="B18" t="s">
+        <v>49</v>
+      </c>
+      <c r="E18" s="10"/>
+      <c r="F18" s="10"/>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="B19" t="s">
+        <v>50</v>
+      </c>
+      <c r="E19" s="10"/>
+      <c r="F19" s="10"/>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="F20" s="10"/>
+      <c r="J20" s="10"/>
+      <c r="M20" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="F21" s="10"/>
+      <c r="R21" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A22" s="31" t="s">
+        <v>84</v>
+      </c>
+      <c r="F22" s="10"/>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="B23" t="s">
+        <v>88</v>
+      </c>
+      <c r="C23" t="s">
+        <v>89</v>
+      </c>
+      <c r="D23" t="s">
+        <v>90</v>
+      </c>
+      <c r="F23" s="10">
+        <v>71</v>
+      </c>
+      <c r="R23" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="F24" s="10"/>
+      <c r="R24" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="F25" s="10"/>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="R27" t="s">
+        <v>36</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35ADC3BF-9AF1-4AAE-AF46-9A9883EA2113}">
+  <dimension ref="A2:E8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="18.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="2"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B7" t="s">
+        <v>57</v>
+      </c>
+      <c r="D7" t="s">
+        <v>58</v>
+      </c>
+      <c r="E7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D8" t="s">
+        <v>62</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>